--- a/data/income_statement/2digits/size/19_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/19_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>19-Manufacture of coke and refined petroleum products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>19-Manufacture of coke and refined petroleum products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,254 +841,289 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>657760.3551</v>
+        <v>657648.3789400001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1276851.2192</v>
+        <v>1315289.45604</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1617707.47689</v>
+        <v>1668772.01501</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1137383.14447</v>
+        <v>1209334.35334</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1406154.66225</v>
+        <v>1504550.12056</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1126310.47482</v>
+        <v>1142646.54427</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>906168.14649</v>
+        <v>890106.9671</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>658065.6616400001</v>
+        <v>648770.4116400001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1284476.55889</v>
+        <v>1333300.85603</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1805307.51893</v>
+        <v>1975210.85264</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2154099.97358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2178210.37574</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2346532.441</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>559418.34549</v>
+        <v>559796.61349</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1161156.84342</v>
+        <v>1203139.48662</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1527761.50273</v>
+        <v>1582102.03077</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1045527.31743</v>
+        <v>1118083.51136</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1304354.59807</v>
+        <v>1406544.07825</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1009083.28411</v>
+        <v>1028069.43656</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>820922.5727200001</v>
+        <v>812145.4021000001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>563752.31725</v>
+        <v>564976.21873</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1178396.9446</v>
+        <v>1221794.14754</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1568731.34936</v>
+        <v>1753803.60855</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1921278.45316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1928699.96118</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2042127.696</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>92190.9724</v>
+        <v>92016.34431</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>106006.57116</v>
+        <v>103468.86542</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>83367.85887000001</v>
+        <v>80689.77437999999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>87273.63933000001</v>
+        <v>86603.61623999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>94162.73749000001</v>
+        <v>91231.32740000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>110266.21436</v>
+        <v>107281.68878</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>79348.14285999999</v>
+        <v>73236.716</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>90595.51944</v>
+        <v>81726.92567</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>99305.62560000001</v>
+        <v>105245.59665</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>228713.59213</v>
+        <v>214217.52786</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>224651.38267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>241567.70488</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>289919.028</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>6151.03721</v>
+        <v>5835.42114</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>9687.804619999999</v>
+        <v>8681.103999999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>6578.11529</v>
+        <v>5980.20986</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>4582.18771</v>
+        <v>4647.22574</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>7637.326690000001</v>
+        <v>6774.714910000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>6960.97635</v>
+        <v>7295.41893</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>5897.43091</v>
+        <v>4724.849</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>3717.82495</v>
+        <v>2067.26724</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>6773.98869</v>
+        <v>6261.11184</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>7862.577439999999</v>
+        <v>7189.716229999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>8170.13775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>7942.70968</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>14485.717</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>11853.20337</v>
+        <v>11635.91187</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>19747.61888</v>
+        <v>18243.33157</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>9720.868799999998</v>
+        <v>9191.044539999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>7599.42752</v>
+        <v>9746.59626</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>59094.47244</v>
+        <v>70071.34243999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>6249.64099</v>
+        <v>18563.51284</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>6849.88853</v>
+        <v>6580.035470000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4422.413820000001</v>
+        <v>4199.20525</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>6714.22383</v>
+        <v>6696.60582</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>11419.76963</v>
+        <v>8813.790730000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>12351.61409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12044.94712</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>15574.923</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>8856.907450000001</v>
+        <v>8641.387510000002</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>16018.48802</v>
+        <v>14444.72586</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>5282.45214</v>
+        <v>4752.62788</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4741.06957</v>
+        <v>6888.23831</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>25994.50805</v>
+        <v>31962.54965</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>5506.7751</v>
+        <v>17510.18935</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>6085.28273</v>
+        <v>5837.43423</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>3837.63328</v>
+        <v>3660.63447</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>5987.91427</v>
+        <v>5896.716719999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>8690.89351</v>
+        <v>6093.247939999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>6519.46879</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>6278.44733</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>9867.58</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>2230.41774</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1802.91086</v>
+        <v>1801.93198</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>1998.0175</v>
@@ -1196,37 +1132,42 @@
         <v>751.6971499999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>861.24923</v>
+        <v>6338.24834</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>633.37464</v>
+        <v>612.5377199999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>450.1988</v>
+        <v>448.64819</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>375.90731</v>
+        <v>329.69755</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>319.35649</v>
+        <v>393.12426</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>2304.728869999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>4504.14423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4501.58663</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>2545.69</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>765.87818</v>
+        <v>764.10662</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1926.22</v>
+        <v>1996.67373</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>2440.39916</v>
@@ -1235,226 +1176,256 @@
         <v>2106.6608</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>32238.71516</v>
+        <v>31770.54445</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>109.49125</v>
+        <v>440.78577</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>314.407</v>
+        <v>293.95305</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>208.87323</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>406.95307</v>
+        <v>406.76484</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>424.14725</v>
+        <v>415.81392</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1328.00107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1264.91316</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3161.653</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>645907.1517299999</v>
+        <v>646012.4670699999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1257103.60032</v>
+        <v>1297046.12447</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1607986.60809</v>
+        <v>1659580.97047</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1129783.71695</v>
+        <v>1199587.75708</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1347060.18981</v>
+        <v>1434478.77812</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1120060.83383</v>
+        <v>1124083.03143</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>899318.2579600001</v>
+        <v>883526.93163</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>653643.24782</v>
+        <v>644571.2063899999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1277762.33506</v>
+        <v>1326604.25021</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1793887.7493</v>
+        <v>1966397.06191</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2141748.35949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2166165.42862</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2330957.518</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>577111.71524</v>
+        <v>578256.02047</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1174861.98556</v>
+        <v>1216488.48519</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1495682.22041</v>
+        <v>1547323.55032</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1050917.50919</v>
+        <v>1118508.65856</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1258821.68238</v>
+        <v>1358751.67582</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1029681.32297</v>
+        <v>1034050.00084</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>804532.4392200001</v>
+        <v>796837.8495</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>579173.25069</v>
+        <v>570415.1531900001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1134475.98561</v>
+        <v>1181570.1356</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1555459.2187</v>
+        <v>1719909.27989</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1873758.18458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1888498.16805</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1992380.946</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>471605.88562</v>
+        <v>473562.20386</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>883201.1360000001</v>
+        <v>919686.1973400001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1110543.06463</v>
+        <v>1161285.06829</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>794483.6428100001</v>
+        <v>829622.58126</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1076109.09993</v>
+        <v>1148613.53411</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>704343.7645599999</v>
+        <v>712824.56712</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>586052.13928</v>
+        <v>590638.1565800001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>364292.49976</v>
+        <v>363986.36511</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>809894.1793399999</v>
+        <v>825818.89323</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1308881.21234</v>
+        <v>1480424.69422</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1458857.39613</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1489246.96532</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1471475.595</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>102800.09619</v>
+        <v>101988.08318</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>287232.83046</v>
+        <v>293286.88526</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>382986.69772</v>
+        <v>384141.9672899999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>255566.74755</v>
+        <v>288035.18105</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>178822.4251</v>
+        <v>205768.49172</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>316595.38278</v>
+        <v>314863.36032</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>209479.32659</v>
+        <v>198374.68425</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>207838.50251</v>
+        <v>199818.39833</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>315988.7079799999</v>
+        <v>347129.02214</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>237755.88698</v>
+        <v>232806.38405</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>405806.30005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>396153.05044</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>499383.714</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1141.53341</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1700.49807</v>
+        <v>787.88156</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1143.35421</v>
+        <v>887.41089</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>659.47589</v>
+        <v>643.2533100000001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3042.96231</v>
+        <v>3522.45495</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>8024.06829</v>
+        <v>5953.445860000001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>7551.027690000001</v>
+        <v>6825.29983</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4319.9138</v>
+        <v>3890.05513</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>8242.60577</v>
+        <v>8299.56948</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>8458.941580000001</v>
+        <v>4594.90991</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>9086.134119999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2054.63226</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>21365.218</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1564.20002</v>
@@ -1472,106 +1443,121 @@
         <v>847.1950400000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>718.10734</v>
+        <v>408.62754</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1449.94566</v>
+        <v>999.70884</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2722.33462</v>
+        <v>2720.33462</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>350.49252</v>
+        <v>322.65075</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>363.1778</v>
+        <v>2083.29171</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>8.354280000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1043.52003</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>156.419</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>68795.43648999999</v>
+        <v>67756.4466</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>82241.61476</v>
+        <v>80557.63928</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>112304.38768</v>
+        <v>112257.42015</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>78866.20776</v>
+        <v>81079.09852000001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>88238.50743000001</v>
+        <v>75727.1023</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>90379.51085999999</v>
+        <v>90033.03059000001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>94785.81874</v>
+        <v>86689.08213000001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>74469.99712999999</v>
+        <v>74156.05320000001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>143286.34945</v>
+        <v>145034.11461</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>238428.5306</v>
+        <v>246487.78202</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>267990.17491</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>277667.26057</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>338576.572</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>44983.41391</v>
+        <v>43782.31989</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>55408.26433</v>
+        <v>52393.56683</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>69641.95052000001</v>
+        <v>67329.29072</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>53844.12437000001</v>
+        <v>55168.95396</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>72497.90996</v>
+        <v>77012.5132</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>61188.99132</v>
+        <v>78049.11572</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>51010.24532</v>
+        <v>44454.18114</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>49824.60778</v>
+        <v>45644.82655</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>70215.81376</v>
+        <v>70041.50846000001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>108159.10349</v>
+        <v>108097.46686</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>150401.83035</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>146480.0056</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>141838.51</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>451.09317</v>
@@ -1580,193 +1566,218 @@
         <v>385.87993</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>808.13708</v>
+        <v>807.9558499999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>693.1320999999999</v>
+        <v>691.5821</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>680.03524</v>
+        <v>842.0363100000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>863.1746899999999</v>
+        <v>857.90121</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>147.58254</v>
+        <v>132.08286</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>444.25384</v>
+        <v>323.0181</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>898.0779</v>
+        <v>425.9872</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2368.65742</v>
+        <v>2524.25545</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>5424.40182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5538.34065</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1629.198</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>20429.37198</v>
+        <v>20848.05979</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>22111.98764</v>
+        <v>21976.02659</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>32214.85633</v>
+        <v>31729.13055</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>23999.54979</v>
+        <v>23856.66526</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>30190.86741</v>
+        <v>29793.71914</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>26825.97944</v>
+        <v>27503.00799</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>19572.81344</v>
+        <v>18697.99035</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>19165.17031</v>
+        <v>18124.68853</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>26707.97701</v>
+        <v>28069.90992</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>53078.90656</v>
+        <v>58303.96189</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>74048.67323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>77476.87918999999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>73220.22100000001</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>24102.94876</v>
+        <v>22483.16693</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>32910.39676</v>
+        <v>30031.66031</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>36618.95711</v>
+        <v>34792.20432</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>29151.44248</v>
+        <v>30620.7066</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>41627.00731</v>
+        <v>46376.75775</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>33499.83719</v>
+        <v>49688.20652</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>31289.84934</v>
+        <v>25624.10793</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>30215.18363</v>
+        <v>27197.11992</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>42609.75885</v>
+        <v>41545.61134</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>52711.53951</v>
+        <v>47269.24952</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>70928.75529999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>63464.78576000001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>66989.091</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>23812.02258</v>
+        <v>23974.12671</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>26833.35043</v>
+        <v>28164.07245</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>42662.43716</v>
+        <v>44928.12943</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>25022.08339</v>
+        <v>25910.14456</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>15740.59747</v>
+        <v>-1285.4109</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>29190.51954</v>
+        <v>11983.91487</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>43775.57342</v>
+        <v>42234.90099</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>24645.38935</v>
+        <v>28511.22665</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>73070.53569</v>
+        <v>74992.60615000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>130269.42711</v>
+        <v>138390.31516</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>117588.34456</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>131187.25497</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>196738.062</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>8581.36781</v>
+        <v>7419.7837</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>8849.7129</v>
+        <v>7505.46358</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>10544.67709</v>
+        <v>9071.74884</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>8494.76389</v>
+        <v>8129.234689999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>17117.49503</v>
+        <v>22446.06986</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>19875.85077</v>
+        <v>77671.88591000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>19867.05934</v>
+        <v>15055.45783</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>18610.07545</v>
+        <v>16866.79631</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>19577.79906</v>
+        <v>24019.10724</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>85338.82987</v>
+        <v>91839.15452000001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>48127.67878</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>57958.87665000001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>144849.935</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0.00033</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>65.7</v>
@@ -1838,52 +1854,62 @@
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>1500</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2550.94102</v>
+        <v>858.4480399999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1134.41951</v>
+        <v>624.87734</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1437.02937</v>
+        <v>808.48713</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1894.2391</v>
+        <v>1219.32268</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1526.63154</v>
+        <v>1473.63538</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2154.59412</v>
+        <v>10639.6186</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2585.91527</v>
+        <v>1718.78493</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2627.98619</v>
+        <v>2568.93019</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2305.5923</v>
+        <v>2481.915860000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>8969.581199999999</v>
+        <v>8311.355670000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>7206.7771</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>6796.41985</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>10786.484</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>126.02669</v>
@@ -1898,10 +1924,10 @@
         <v>155.03782</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>75.60175</v>
+        <v>20.15236</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>2.55847</v>
+        <v>7.86321</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>5.746569999999999</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>17.642</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>693.28858</v>
+        <v>668.33158</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>67.53564999999999</v>
@@ -1940,13 +1971,13 @@
         <v>308.02888</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>34.87808999999999</v>
+        <v>49.3056</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>200.45766</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>10.037</v>
+        <v>0</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>3.66</v>
@@ -1957,14 +1988,19 @@
       <c r="M30" s="48" t="n">
         <v>42.17917</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>40.77722</v>
+        <v>4.719939999999999</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>13.27978</v>
@@ -1976,19 +2012,19 @@
         <v>167.27307</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>32.36158</v>
+        <v>32.45199</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>77.87094999999999</v>
+        <v>63.42464</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>20.98274</v>
+        <v>17.7489</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>70.8443</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>6.6516</v>
+        <v>7.50869</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>10.86855</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>70.42457</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>130.564</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>4347.88756</v>
+        <v>4461.26649</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>5083.98183</v>
+        <v>5022.41967</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>6399.89688</v>
+        <v>6200.65249</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3743.09567</v>
+        <v>4013.94962</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>11933.11595</v>
+        <v>16600.56122</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>16688.90822</v>
+        <v>64743.97497</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>15770.58745</v>
+        <v>11915.75021</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>14656.99999</v>
+        <v>13068.63794</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>14727.1523</v>
+        <v>19111.00736</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>71349.70997</v>
+        <v>77294.15445</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>38372.03184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>45383.02864</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>116801.101</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>9.190389999999999</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>263.0752199999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,113 +2164,128 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>747.55635</v>
+        <v>1226.10057</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2210.9213</v>
+        <v>1437.77631</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2038.62065</v>
+        <v>1393.47903</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2514.06</v>
+        <v>2552.59327</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>3241.75533</v>
+        <v>4011.24003</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>917.04092</v>
+        <v>2167.69889</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1058.02264</v>
+        <v>971.62255</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1181.75327</v>
+        <v>1095.92918</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2534.55242</v>
+        <v>2414.82489</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>4825.589190000001</v>
+        <v>6039.69489</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2173.19055</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3903.74887</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>17102.644</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>5718.62284</v>
+        <v>5741.09252</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>7790.810109999999</v>
+        <v>7530.31625</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>13714.40255</v>
+        <v>12879.25965</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>4905.869570000001</v>
+        <v>5232.44254</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>19763.6075</v>
+        <v>24527.67135</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>22988.46069</v>
+        <v>80136.20053999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>26480.55649</v>
+        <v>21882.42601</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>11927.30367</v>
+        <v>10430.13834</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>15049.3969</v>
+        <v>19360.73272</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>108638.62282</v>
+        <v>106753.58897</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>48417.28069</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>50652.1054</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>102725.324</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>111.91244</v>
+        <v>139.19376</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>1379.96657</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1430.84615</v>
+        <v>1457.20901</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>943.3857399999999</v>
+        <v>1050.84594</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>411.89765</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>454.62584</v>
+        <v>455.86338</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>569.84315</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>774.71441</v>
+        <v>767.7413</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>965.94699</v>
@@ -2230,14 +2296,19 @@
       <c r="M37" s="48" t="n">
         <v>1595.57488</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>2372.636</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1221.40216</v>
+        <v>1195.35868</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>566.28895</v>
@@ -2249,10 +2320,10 @@
         <v>606.39302</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>951.4919100000001</v>
+        <v>986.20041</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1223.00882</v>
+        <v>1098.00882</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>356.0478</v>
@@ -2267,13 +2338,18 @@
         <v>382.16383</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>3098.4492</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>3083.12757</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>189.503</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>4263.92108</v>
+        <v>4284.98292</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>5688.82921</v>
+        <v>5428.335349999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>10846.40418</v>
+        <v>9984.890870000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>3124.83051</v>
+        <v>3342.57324</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>18097.40977</v>
+        <v>22899.30198</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>20407.94932</v>
+        <v>77827.59593</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>25198.91895</v>
+        <v>20696.81712</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>10682.29131</v>
+        <v>9305.477700000001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>13037.95694</v>
+        <v>17459.65102</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>106061.69188</v>
+        <v>104254.34219</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>42474.37061999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>44971.91222999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>96440.22</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>4.030320000000001</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,140 +2516,160 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>117.35684</v>
+        <v>117.52684</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>147.44692</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>886.01321</v>
+        <v>886.02076</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>231.2603</v>
+        <v>232.63034</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>146.60207</v>
+        <v>74.06521000000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>902.87671</v>
+        <v>754.7324100000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>355.55348</v>
+        <v>259.52483</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>278.54597</v>
+        <v>165.16736</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>794.97212</v>
+        <v>684.6138599999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>665.25634</v>
+        <v>587.57218</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1248.88599</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1001.49072</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3722.965</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>7839.265510000001</v>
+        <v>8092.05367</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>6316.40905</v>
+        <v>6011.55297</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>15464.00784</v>
+        <v>15494.73636</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>12665.92276</v>
+        <v>12626.68248</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>17326.30296</v>
+        <v>19068.57532</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>13446.57344</v>
+        <v>13751.60616</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>12403.89151</v>
+        <v>10178.81018</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>11325.48065</v>
+        <v>9493.770610000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>15466.0838</v>
+        <v>17783.02582</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>40379.69668</v>
+        <v>49772.61487999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>44474.33143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>66004.51106999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>55493.797</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>7839.265510000001</v>
+        <v>7985.551390000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>6311.332219999999</v>
+        <v>6006.47614</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>15400.37014</v>
+        <v>15358.39956</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>12653.28625</v>
+        <v>12624.38847</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>17248.69925</v>
+        <v>18990.97161</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>13418.39362</v>
+        <v>13723.42634</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>12379.18781</v>
+        <v>10178.81018</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>11325.48065</v>
+        <v>9493.770610000001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>15417.85524</v>
+        <v>17734.79726</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>40379.69668</v>
+        <v>43561.14444999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>42379.43255</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>52540.85918</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>54918.916</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>0</v>
+        <v>106.50228</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>5.07683</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>63.6377</v>
+        <v>136.3368</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>12.63651</v>
+        <v>2.29401</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>77.60371000000001</v>
@@ -2567,7 +2678,7 @@
         <v>28.17982</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>24.7037</v>
+        <v>0</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>0</v>
@@ -2576,94 +2687,109 @@
         <v>48.22855999999999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>0</v>
+        <v>6211.470429999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2094.89888</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>13463.65189</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>574.881</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>18835.50204</v>
+        <v>17560.76422</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>21575.84417</v>
+        <v>22127.66681</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>24028.70386</v>
+        <v>25625.88226</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>15945.05495</v>
+        <v>16180.25423</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-4231.81796</v>
+        <v>-22435.58771</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>12631.33618</v>
+        <v>-4232.00592</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>24758.18476</v>
+        <v>25229.12263</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>20002.68048</v>
+        <v>25454.11401</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>62132.85404999999</v>
+        <v>61867.95485</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>66589.93748000001</v>
+        <v>73703.26583</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>72824.41121999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>72489.51515000001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>183368.876</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1478.04088</v>
+        <v>1578.94177</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3173.98916</v>
+        <v>2911.54797</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2789.74887</v>
+        <v>2403.99006</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3503.051179999999</v>
+        <v>3528.02005</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>7243.93715</v>
+        <v>12728.16866</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>4506.88558</v>
+        <v>4172.62407</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>8750.180189999999</v>
+        <v>8363.75302</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2216.66746</v>
+        <v>1913.34355</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>5617.45023</v>
+        <v>5315.40632</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>3761.11927</v>
+        <v>5251.0373</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>23566.83251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>32815.84103</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>15711.364</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2672,7 +2798,7 @@
         <v>11.05028</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>144.91342</v>
+        <v>139.06342</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>921.55737</v>
@@ -2681,7 +2807,7 @@
         <v>249.77116</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>56.26741000000001</v>
+        <v>0</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>127.26758</v>
@@ -2693,94 +2819,109 @@
         <v>255.36542</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1146.35123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1191.09879</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>53.603</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1478.04088</v>
+        <v>1578.94177</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3162.93888</v>
+        <v>2900.49769</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2644.83545</v>
+        <v>2264.92664</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2581.493809999999</v>
+        <v>2606.46268</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>6994.16599</v>
+        <v>12478.3975</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>4450.61817</v>
+        <v>4172.62407</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>8622.912609999999</v>
+        <v>8236.48544</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1933.31809</v>
+        <v>1629.99418</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>5362.08481</v>
+        <v>5060.0409</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3761.11927</v>
+        <v>5250.6273</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>22420.48128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>31624.74224</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>15657.761</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2249.70783</v>
+        <v>1396.57864</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1841.10954</v>
+        <v>1531.87824</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>7592.087280000001</v>
+        <v>7135.77434</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>2696.69942</v>
+        <v>2776.20893</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>8197.52709</v>
+        <v>7827.88508</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>7620.18995</v>
+        <v>7706.91165</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>4726.23707</v>
+        <v>3577.46114</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>6635.02513</v>
+        <v>6261.914070000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>4165.90733</v>
+        <v>4232.33181</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>5506.020259999999</v>
+        <v>5009.53922</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>5170.67434</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>5149.044889999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>16085.148</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>85.41394</v>
@@ -2789,19 +2930,19 @@
         <v>0.11039</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>116.89812</v>
+        <v>142.66324</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>0</v>
+        <v>119.08304</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>526.7020699999999</v>
+        <v>448.92927</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>1037.40413</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>451.10435</v>
+        <v>414.45418</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>349.01633</v>
@@ -2813,205 +2954,233 @@
         <v>1484.20056</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>333.01161</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>589.0913399999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>113.948</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>4.762</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>262.0235</v>
+        <v>121.7735</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>73.02906</v>
+        <v>72.42828</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>32.31148</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>152.42755</v>
+        <v>115.90583</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>76.71014</v>
+        <v>76.70941999999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>181.35466</v>
+        <v>67.0301</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>176.58442</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>181.16395</v>
+        <v>202.69099</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>37.85697</v>
+        <v>127.42147</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>96.10532000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>59.20098</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>111.237</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2159.53189</v>
+        <v>1306.4027</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1578.97565</v>
+        <v>1409.99435</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>7402.1601</v>
+        <v>6920.68282</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2664.38794</v>
+        <v>2624.81441</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7518.39747</v>
+        <v>7263.049980000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>6506.07568</v>
+        <v>6592.7981</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4093.77806</v>
+        <v>3095.97686</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>6109.424379999999</v>
+        <v>5736.31332</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>3234.36713</v>
+        <v>3279.26457</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>3983.96273</v>
+        <v>3397.91719</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>4741.55741</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>4500.752570000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>15859.963</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>18063.83509</v>
+        <v>17743.12735</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>22908.72379</v>
+        <v>23507.33654</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>19226.36545</v>
+        <v>20894.09798</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>16751.40671</v>
+        <v>16932.06535</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-5185.4079</v>
+        <v>-17535.30413</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>9518.03181</v>
+        <v>-7766.293499999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>28782.12788</v>
+        <v>30015.41451</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>15584.32281</v>
+        <v>21105.54349</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>63584.39694999999</v>
+        <v>62951.02936</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>64845.03648999999</v>
+        <v>73944.76390999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>91220.56939</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>100156.31129</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>182995.092</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>4986.21272</v>
+        <v>4759.63274</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4808.078759999999</v>
+        <v>4785.20414</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>5889.879800000001</v>
+        <v>5928.86166</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>3623.75034</v>
+        <v>3755.6218</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>4086.75949</v>
+        <v>4153.955840000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>4224.620400000001</v>
+        <v>4306.376270000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>5427.111529999999</v>
+        <v>5071.092259999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3537.87343</v>
+        <v>3424.41707</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>13645.3204</v>
+        <v>13621.20088</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>13174.47894</v>
+        <v>13150.56417</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>20694.53305</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>19695.88377</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>34672.908</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>13077.62237</v>
+        <v>12983.49461</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>18100.64503</v>
+        <v>18722.1324</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>13336.48565</v>
+        <v>14965.23632</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>13127.65637</v>
+        <v>13176.44355</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-9272.167389999999</v>
+        <v>-21689.25997</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>5293.41141</v>
+        <v>-12072.66977</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>23355.01635</v>
+        <v>24944.32225</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>12046.44938</v>
+        <v>17681.12642</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>49939.07655</v>
+        <v>49329.82848</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>51670.55755</v>
+        <v>60794.19974</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>70526.03634000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>80460.42752000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>148322.184</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>